--- a/Teen_State_Vaccination_Data.xlsx
+++ b/Teen_State_Vaccination_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/263e6c96784ab765/Desktop/Common_Health/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/263e6c96784ab765/Desktop/Common_Health/Measles_USA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="11_8AA400C4E87E792314A2BEE50E4843C73E594C1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EE972E9-DCEE-4A97-9A1A-D3CE8E4336C8}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="11_8AA400C4E87E792314A2BEE50E4843C73E594C1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30F471E6-4397-4B3A-99CC-DB9CF66E148E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12123,11 +12123,12 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1:M1048576"/>
+      <selection pane="bottomRight" sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
